--- a/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_200Products.xlsx
+++ b/IEDC_Classification_fill/Official_classifications/EXIOBASEv3_200Products.xlsx
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,6 +2380,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
